--- a/template/deposit/inst.xlsx
+++ b/template/deposit/inst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\repo\utils\template\deposit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8069655B-2810-4A7B-92CA-8A4172F7B5F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669E16C-8B31-4A7C-8D9B-6D4938B25A7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>活期</t>
   </si>
@@ -50,10 +44,6 @@
   </si>
   <si>
     <t>机构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -434,92 +424,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
+  <mergeCells count="4">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
